--- a/data/0_raw/exchange_rate_data.xlsx
+++ b/data/0_raw/exchange_rate_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1494"/>
+  <dimension ref="A1:B1508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15375,6 +15375,146 @@
         <v>1479.8</v>
       </c>
     </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>1455.3</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>1435.5</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>1433.5</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>1453.5</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>1460.5</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>1465.5</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>1459.5</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>1457.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0_raw/exchange_rate_data.xlsx
+++ b/data/0_raw/exchange_rate_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1508"/>
+  <dimension ref="A1:B1514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15515,6 +15515,66 @@
         <v>1457.6</v>
       </c>
     </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>1442.5</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>1445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
